--- a/2des/03-bcd/aula05/05.projeto_pedidos/pedidos_normalizado.xlsx
+++ b/2des/03-bcd/aula05/05.projeto_pedidos/pedidos_normalizado.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\senai2023\2des\03-bcd\aula05\normalizados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.martins\Desktop\github\senai2023\2des\03-bcd\aula05\05.projeto_pedidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D57A6D-1C45-4CC4-A968-4B6B06F3E099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="pedido" sheetId="4" r:id="rId5"/>
     <sheet name="produto" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -569,7 +571,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1107,11 +1109,11 @@
     <cellStyle name="Ênfase5" xfId="35" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="39" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
-    <cellStyle name="Neutra" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
@@ -1431,30 +1433,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
     <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
     <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3174,11 +3178,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3720,7 +3724,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3729,11 +3733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4007,7 +4011,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4016,11 +4020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,25 +4096,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5080,11 +5084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5184,7 +5188,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
